--- a/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW20.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="AlphaFiberF-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="AlphaFiberF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,7 +961,7 @@
         <v>0.9935122917394891</v>
       </c>
       <c r="G13">
-        <v>0.995106991508916</v>
+        <v>0.9951069915089162</v>
       </c>
       <c r="H13">
         <v>0.9958445734285467</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9932051923405064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.068666319289838</v>
+      </c>
+      <c r="D16">
+        <v>1.067777675235372</v>
+      </c>
+      <c r="E16">
+        <v>0.9487134065268789</v>
+      </c>
+      <c r="F16">
+        <v>1.068666319289838</v>
+      </c>
+      <c r="G16">
+        <v>1.010109180398649</v>
+      </c>
+      <c r="H16">
+        <v>0.9379565520909054</v>
+      </c>
+      <c r="I16">
+        <v>0.981474051889873</v>
+      </c>
+      <c r="J16">
+        <v>1.067777675235372</v>
+      </c>
+      <c r="K16">
+        <v>1.008245540881125</v>
+      </c>
+      <c r="L16">
+        <v>1.038455930085482</v>
+      </c>
+      <c r="M16">
+        <v>1.002449530905253</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.068666319289838</v>

--- a/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW20.xlsx
@@ -964,7 +964,7 @@
         <v>0.9935122917394891</v>
       </c>
       <c r="G13">
-        <v>0.9951069915089162</v>
+        <v>0.995106991508916</v>
       </c>
       <c r="H13">
         <v>0.9958445734285467</v>

--- a/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/AlphaFiberF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6902359999999996</v>
+        <v>1.068666319289838</v>
       </c>
       <c r="D10">
-        <v>1.340892</v>
+        <v>1.067777675235372</v>
       </c>
       <c r="E10">
-        <v>1.044004000000001</v>
+        <v>0.9487134065268789</v>
       </c>
       <c r="F10">
-        <v>0.6902359999999996</v>
+        <v>1.068666319289838</v>
       </c>
       <c r="G10">
-        <v>1.068255999999998</v>
+        <v>1.010109180398649</v>
       </c>
       <c r="H10">
-        <v>1.243235999999999</v>
+        <v>0.9379565520909054</v>
       </c>
       <c r="I10">
-        <v>0.9573399999999992</v>
+        <v>0.981474051889873</v>
       </c>
       <c r="J10">
-        <v>1.340892</v>
+        <v>1.067777675235372</v>
       </c>
       <c r="K10">
-        <v>1.192448</v>
+        <v>1.008245540881125</v>
       </c>
       <c r="L10">
-        <v>0.941342</v>
+        <v>1.038455930085482</v>
       </c>
       <c r="M10">
-        <v>1.057327333333333</v>
+        <v>1.002449530905253</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.61</v>
+        <v>0.8727383293211178</v>
       </c>
       <c r="D11">
-        <v>1.408349999999997</v>
+        <v>0.9503777337269445</v>
       </c>
       <c r="E11">
-        <v>1.0582125</v>
+        <v>1.092976826136958</v>
       </c>
       <c r="F11">
-        <v>0.61</v>
+        <v>0.8727383293211178</v>
       </c>
       <c r="G11">
-        <v>1.1</v>
+        <v>0.8663765038449267</v>
       </c>
       <c r="H11">
-        <v>1.28</v>
+        <v>1.3892266471813</v>
       </c>
       <c r="I11">
-        <v>0.96</v>
+        <v>1.030183596349878</v>
       </c>
       <c r="J11">
-        <v>1.408349999999997</v>
+        <v>0.9503777337269445</v>
       </c>
       <c r="K11">
-        <v>1.233281249999998</v>
+        <v>1.021677279931951</v>
       </c>
       <c r="L11">
-        <v>0.9216406249999992</v>
+        <v>0.9472078046265346</v>
       </c>
       <c r="M11">
-        <v>1.069427083333333</v>
+        <v>1.033646606093521</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7740280868864</v>
+        <v>0.8721444005103356</v>
       </c>
       <c r="D12">
-        <v>1.233587690393598</v>
+        <v>0.952504810201553</v>
       </c>
       <c r="E12">
-        <v>1.030545201049596</v>
+        <v>1.092481039671854</v>
       </c>
       <c r="F12">
-        <v>0.7740280868864</v>
+        <v>0.8721444005103356</v>
       </c>
       <c r="G12">
-        <v>1.055304665292798</v>
+        <v>0.8676400895155442</v>
       </c>
       <c r="H12">
-        <v>1.155482233753597</v>
+        <v>1.387701161620881</v>
       </c>
       <c r="I12">
-        <v>0.9733050576895997</v>
+        <v>1.029552540133116</v>
       </c>
       <c r="J12">
-        <v>1.233587690393598</v>
+        <v>0.952504810201553</v>
       </c>
       <c r="K12">
-        <v>1.132066445721597</v>
+        <v>1.022492924936703</v>
       </c>
       <c r="L12">
-        <v>0.9530472663039986</v>
+        <v>0.9473186627235195</v>
       </c>
       <c r="M12">
-        <v>1.037042155844265</v>
+        <v>1.033670673608881</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9935122917394891</v>
+        <v>0.8725508905270002</v>
       </c>
       <c r="D13">
-        <v>0.9956782041916629</v>
+        <v>0.9509374295599213</v>
       </c>
       <c r="E13">
-        <v>0.9958302196493651</v>
+        <v>1.092850609788978</v>
       </c>
       <c r="F13">
-        <v>0.9935122917394891</v>
+        <v>0.8725508905270002</v>
       </c>
       <c r="G13">
-        <v>0.995106991508916</v>
+        <v>0.866683383265007</v>
       </c>
       <c r="H13">
-        <v>0.9958445734285467</v>
+        <v>1.388855318751441</v>
       </c>
       <c r="I13">
-        <v>0.9948297475606834</v>
+        <v>1.02995674526145</v>
       </c>
       <c r="J13">
-        <v>0.9956782041916629</v>
+        <v>0.9509374295599213</v>
       </c>
       <c r="K13">
-        <v>0.9957542119205141</v>
+        <v>1.02189401967445</v>
       </c>
       <c r="L13">
-        <v>0.9946332518300015</v>
+        <v>0.9472224551007249</v>
       </c>
       <c r="M13">
-        <v>0.9951336713464439</v>
+        <v>1.033639062858966</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.011298874880657</v>
+        <v>0.6902359999999996</v>
       </c>
       <c r="D14">
-        <v>0.9881835490611545</v>
+        <v>1.340892</v>
       </c>
       <c r="E14">
-        <v>0.9900460804314046</v>
+        <v>1.044004000000001</v>
       </c>
       <c r="F14">
-        <v>1.011298874880657</v>
+        <v>0.6902359999999996</v>
       </c>
       <c r="G14">
-        <v>0.9909868733543298</v>
+        <v>1.068255999999998</v>
       </c>
       <c r="H14">
-        <v>0.9894811700845939</v>
+        <v>1.243235999999999</v>
       </c>
       <c r="I14">
-        <v>0.996533177215208</v>
+        <v>0.9573399999999992</v>
       </c>
       <c r="J14">
-        <v>0.9881835490611545</v>
+        <v>1.340892</v>
       </c>
       <c r="K14">
-        <v>0.9891148147462796</v>
+        <v>1.192448</v>
       </c>
       <c r="L14">
-        <v>1.000206844813468</v>
+        <v>0.941342</v>
       </c>
       <c r="M14">
-        <v>0.9944216208378913</v>
+        <v>1.057327333333333</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.00543197511227</v>
+        <v>0.61</v>
       </c>
       <c r="D15">
-        <v>0.9755622242192407</v>
+        <v>1.408349999999997</v>
       </c>
       <c r="E15">
-        <v>0.997120158705321</v>
+        <v>1.0582125</v>
       </c>
       <c r="F15">
-        <v>1.00543197511227</v>
+        <v>0.61</v>
       </c>
       <c r="G15">
-        <v>0.9844891689177391</v>
+        <v>1.1</v>
       </c>
       <c r="H15">
-        <v>0.9971856438074491</v>
+        <v>1.28</v>
       </c>
       <c r="I15">
-        <v>0.9994419832810186</v>
+        <v>0.96</v>
       </c>
       <c r="J15">
-        <v>0.9755622242192407</v>
+        <v>1.408349999999997</v>
       </c>
       <c r="K15">
-        <v>0.9863411914622808</v>
+        <v>1.233281249999998</v>
       </c>
       <c r="L15">
-        <v>0.9958865832872755</v>
+        <v>0.9216406249999992</v>
       </c>
       <c r="M15">
-        <v>0.9932051923405064</v>
+        <v>1.069427083333333</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.068666319289838</v>
+        <v>0.7740280868864</v>
       </c>
       <c r="D16">
-        <v>1.067777675235372</v>
+        <v>1.233587690393598</v>
       </c>
       <c r="E16">
-        <v>0.9487134065268789</v>
+        <v>1.030545201049596</v>
       </c>
       <c r="F16">
-        <v>1.068666319289838</v>
+        <v>0.7740280868864</v>
       </c>
       <c r="G16">
-        <v>1.010109180398649</v>
+        <v>1.055304665292798</v>
       </c>
       <c r="H16">
-        <v>0.9379565520909054</v>
+        <v>1.155482233753597</v>
       </c>
       <c r="I16">
-        <v>0.981474051889873</v>
+        <v>0.9733050576895997</v>
       </c>
       <c r="J16">
-        <v>1.067777675235372</v>
+        <v>1.233587690393598</v>
       </c>
       <c r="K16">
-        <v>1.008245540881125</v>
+        <v>1.132066445721597</v>
       </c>
       <c r="L16">
-        <v>1.038455930085482</v>
+        <v>0.9530472663039986</v>
       </c>
       <c r="M16">
-        <v>1.002449530905253</v>
+        <v>1.037042155844265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9935122917394891</v>
+      </c>
+      <c r="D17">
+        <v>0.9956782041916629</v>
+      </c>
+      <c r="E17">
+        <v>0.9958302196493651</v>
+      </c>
+      <c r="F17">
+        <v>0.9935122917394891</v>
+      </c>
+      <c r="G17">
+        <v>0.9951069915089162</v>
+      </c>
+      <c r="H17">
+        <v>0.9958445734285467</v>
+      </c>
+      <c r="I17">
+        <v>0.9948297475606834</v>
+      </c>
+      <c r="J17">
+        <v>0.9956782041916629</v>
+      </c>
+      <c r="K17">
+        <v>0.9957542119205141</v>
+      </c>
+      <c r="L17">
+        <v>0.9946332518300015</v>
+      </c>
+      <c r="M17">
+        <v>0.9951336713464439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.011298874880657</v>
+      </c>
+      <c r="D18">
+        <v>0.9881835490611545</v>
+      </c>
+      <c r="E18">
+        <v>0.9900460804314046</v>
+      </c>
+      <c r="F18">
+        <v>1.011298874880657</v>
+      </c>
+      <c r="G18">
+        <v>0.9909868733543298</v>
+      </c>
+      <c r="H18">
+        <v>0.9894811700845939</v>
+      </c>
+      <c r="I18">
+        <v>0.996533177215208</v>
+      </c>
+      <c r="J18">
+        <v>0.9881835490611545</v>
+      </c>
+      <c r="K18">
+        <v>0.9891148147462796</v>
+      </c>
+      <c r="L18">
+        <v>1.000206844813468</v>
+      </c>
+      <c r="M18">
+        <v>0.9944216208378913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.00543197511227</v>
+      </c>
+      <c r="D19">
+        <v>0.9755622242192407</v>
+      </c>
+      <c r="E19">
+        <v>0.997120158705321</v>
+      </c>
+      <c r="F19">
+        <v>1.00543197511227</v>
+      </c>
+      <c r="G19">
+        <v>0.9844891689177391</v>
+      </c>
+      <c r="H19">
+        <v>0.9971856438074491</v>
+      </c>
+      <c r="I19">
+        <v>0.9994419832810186</v>
+      </c>
+      <c r="J19">
+        <v>0.9755622242192407</v>
+      </c>
+      <c r="K19">
+        <v>0.9863411914622808</v>
+      </c>
+      <c r="L19">
+        <v>0.9958865832872755</v>
+      </c>
+      <c r="M19">
+        <v>0.9932051923405064</v>
       </c>
     </row>
   </sheetData>
